--- a/Guru99_BankingProject/Project/IntegrationPlanningV1.xlsx
+++ b/Guru99_BankingProject/Project/IntegrationPlanningV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijayakhatiwada/Desktop/Desktop – Bijayas MacBook Pro/Software Testing Project/Guru99_BankingProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF34ED3-FE5B-5442-BCEE-1E7E07FEE811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D5630-866D-0645-BC9F-735B16AE82D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" xr2:uid="{5A6C8BE4-356D-B045-AA46-F43051AC7653}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="1" xr2:uid="{5A6C8BE4-356D-B045-AA46-F43051AC7653}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -683,6 +683,30 @@
   </si>
   <si>
     <t>Error message : From date must be smaller than To Date</t>
+  </si>
+  <si>
+    <t>IP_21</t>
+  </si>
+  <si>
+    <t>IP_22</t>
+  </si>
+  <si>
+    <t>IP_27</t>
+  </si>
+  <si>
+    <t>IP_28</t>
+  </si>
+  <si>
+    <t>IP_29</t>
+  </si>
+  <si>
+    <t>IP_30</t>
+  </si>
+  <si>
+    <t>IP_31</t>
+  </si>
+  <si>
+    <t>IP_32</t>
   </si>
 </sst>
 </file>
@@ -747,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -770,42 +794,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -844,35 +834,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,34 +846,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C5689D-DC42-CD45-8ADF-CD0DE5F286D3}">
   <dimension ref="H12:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1282,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF8892E-9C7A-BA4D-AB84-86B1B47810C7}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="D32" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1301,28 +1258,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1330,25 +1287,25 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1356,23 +1313,23 @@
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1380,25 +1337,25 @@
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1406,23 +1363,23 @@
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1430,23 +1387,23 @@
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1454,23 +1411,23 @@
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1478,25 +1435,25 @@
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1504,107 +1461,107 @@
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="119">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="136">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="136">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="136">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1613,22 +1570,22 @@
       <c r="F13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="136">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1637,457 +1594,473 @@
       <c r="F14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="136">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="136">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="14" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="85">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="85">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>105</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="68">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="27" t="s">
+      <c r="G19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="68">
-      <c r="A20" s="21"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="29"/>
+      <c r="G20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="68">
-      <c r="A21" s="21"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="68">
-      <c r="A22" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="68">
-      <c r="A23" s="14"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="29" t="s">
+      <c r="G23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="68">
-      <c r="A24" s="14"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="29" t="s">
+      <c r="G24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="68">
-      <c r="A25" s="14"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="29" t="s">
+      <c r="G25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="68">
-      <c r="A26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="29" t="s">
+      <c r="G26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="68">
-      <c r="A27" s="21"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="G27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="68">
-      <c r="A28" s="21"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="29" t="s">
+      <c r="G28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="68">
-      <c r="A29" s="21"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="68">
-      <c r="A30" s="21"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="29" t="s">
+      <c r="G30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="153">
-      <c r="A31" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="153">
-      <c r="A32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="29" t="s">
+      <c r="G32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="153">
-      <c r="A33" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="A33" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9" t="s">
-        <v>94</v>
+      <c r="G33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Guru99_BankingProject/Project/IntegrationPlanningV1.xlsx
+++ b/Guru99_BankingProject/Project/IntegrationPlanningV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijayakhatiwada/Desktop/Desktop – Bijayas MacBook Pro/Software Testing Project/Guru99_BankingProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D5630-866D-0645-BC9F-735B16AE82D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFCFFF-A1B7-2B44-91F6-A2C669DFFFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="1" xr2:uid="{5A6C8BE4-356D-B045-AA46-F43051AC7653}"/>
   </bookViews>
@@ -1241,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF8892E-9C7A-BA4D-AB84-86B1B47810C7}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>

--- a/Guru99_BankingProject/Project/IntegrationPlanningV1.xlsx
+++ b/Guru99_BankingProject/Project/IntegrationPlanningV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijayakhatiwada/Desktop/Desktop – Bijayas MacBook Pro/Software Testing Project/Guru99_BankingProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFCFFF-A1B7-2B44-91F6-A2C669DFFFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F238125-4561-B447-A4CD-E55FE65B3B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="1" xr2:uid="{5A6C8BE4-356D-B045-AA46-F43051AC7653}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Email Id already exist.</t>
-  </si>
-  <si>
-    <t>Connection Error</t>
   </si>
   <si>
     <t>IP_3</t>
@@ -622,9 +619,6 @@
     <t>Error message : No transaction made</t>
   </si>
   <si>
-    <t>connection Error</t>
-  </si>
-  <si>
     <t>Verify If account not associate with manager itself</t>
   </si>
   <si>
@@ -708,12 +702,15 @@
   <si>
     <t>IP_32</t>
   </si>
+  <si>
+    <t>Cannot be executed due to connection issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,6 +740,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -798,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,9 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -843,17 +842,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,6 +855,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF8892E-9C7A-BA4D-AB84-86B1B47810C7}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1253,7 +1252,7 @@
     <col min="4" max="4" width="43.5" customWidth="1"/>
     <col min="5" max="5" width="40.33203125" customWidth="1"/>
     <col min="6" max="6" width="55.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1287,11 +1286,11 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>18</v>
@@ -1305,7 +1304,7 @@
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1313,12 +1312,12 @@
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>19</v>
@@ -1326,49 +1325,49 @@
       <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="221">
       <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="238">
       <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1376,690 +1375,690 @@
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="68">
       <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="68">
       <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="119">
       <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="119">
       <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="119">
       <c r="A10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="136">
       <c r="A11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="136">
       <c r="A12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="136">
       <c r="A13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="136">
       <c r="A14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="136">
       <c r="A15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="136">
+      <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="136">
-      <c r="A16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="D16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="85">
       <c r="A17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="85">
+      <c r="A18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="7" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D18" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="85">
-      <c r="A18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="68">
       <c r="A19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="68">
       <c r="A20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="15"/>
+      <c r="G20" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="68">
       <c r="A21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="68">
+      <c r="A22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="68">
-      <c r="A22" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="E22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="68">
       <c r="A23" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="68">
       <c r="A24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68">
+      <c r="A25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="68">
-      <c r="A25" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="68">
       <c r="A26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="68">
       <c r="A27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="68">
       <c r="A28" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="F28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="68">
       <c r="A29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="68">
       <c r="A30" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="G30" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="153">
+      <c r="A31" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="153">
-      <c r="A31" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="D31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="15" t="s">
+      <c r="G31" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="153">
       <c r="A32" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="153">
-      <c r="A33" s="18" t="s">
-        <v>165</v>
+      <c r="A33" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>21</v>
       </c>
     </row>
